--- a/直播源汇总文档/IPV6直播源汇总/陕西移动.xlsx
+++ b/直播源汇总文档/IPV6直播源汇总/陕西移动.xlsx
@@ -14258,7 +14258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/直播源汇总文档/IPV6直播源汇总/陕西移动.xlsx
+++ b/直播源汇总文档/IPV6直播源汇总/陕西移动.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="央视" sheetId="1" r:id="rId1"/>
@@ -1371,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -22231,7 +22231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
